--- a/MitasExperiment2018.xlsx
+++ b/MitasExperiment2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johnny\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{600E81B3-86CE-42CD-BD51-E8C874664016}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{64C65ACB-BC41-4028-9331-A70C8869F9F7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{FD6869F7-D6C6-48D3-94BF-1FBC1317027A}"/>
   </bookViews>
@@ -644,7 +644,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
@@ -679,7 +679,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="594148616"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="-110"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -794,7 +794,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="594148288"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -1763,7 +1763,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1810,11 +1810,11 @@
         <v>548660</v>
       </c>
       <c r="F2" s="1">
-        <f>$B$13-E2</f>
+        <f t="shared" ref="F2:F7" si="0">$B$13-E2</f>
         <v>1158.1818000000203</v>
       </c>
       <c r="G2" s="2">
-        <f>E2/$B$13*100</f>
+        <f t="shared" ref="G2:G7" si="1">E2/$B$13*100</f>
         <v>99.789351855151764</v>
       </c>
     </row>
@@ -1835,11 +1835,11 @@
         <v>548690</v>
       </c>
       <c r="F3" s="1">
-        <f>$B$13-E3</f>
+        <f t="shared" si="0"/>
         <v>1128.1818000000203</v>
       </c>
       <c r="G3" s="2">
-        <f>E3/$B$13*100</f>
+        <f t="shared" si="1"/>
         <v>99.79480820435829</v>
       </c>
     </row>
@@ -1860,11 +1860,11 @@
         <v>548574</v>
       </c>
       <c r="F4" s="1">
-        <f>$B$13-E4</f>
+        <f t="shared" si="0"/>
         <v>1244.1818000000203</v>
       </c>
       <c r="G4" s="2">
-        <f>E4/$B$13*100</f>
+        <f t="shared" si="1"/>
         <v>99.773710320759719</v>
       </c>
     </row>
@@ -1885,11 +1885,11 @@
         <v>548610</v>
       </c>
       <c r="F5" s="1">
-        <f>$B$13-E5</f>
+        <f t="shared" si="0"/>
         <v>1208.1818000000203</v>
       </c>
       <c r="G5" s="2">
-        <f>E5/$B$13*100</f>
+        <f t="shared" si="1"/>
         <v>99.780257939807555</v>
       </c>
     </row>
@@ -1910,11 +1910,11 @@
         <v>549042</v>
       </c>
       <c r="F6" s="1">
-        <f>$B$13-E6</f>
+        <f t="shared" si="0"/>
         <v>776.1818000000203</v>
       </c>
       <c r="G6" s="2">
-        <f>E6/$B$13*100</f>
+        <f t="shared" si="1"/>
         <v>99.858829368381578</v>
       </c>
     </row>
@@ -1935,11 +1935,11 @@
         <v>549132</v>
       </c>
       <c r="F7" s="1">
-        <f>$B$13-E7</f>
+        <f t="shared" si="0"/>
         <v>686.1818000000203</v>
       </c>
       <c r="G7" s="2">
-        <f>E7/$B$13*100</f>
+        <f t="shared" si="1"/>
         <v>99.875198416001169</v>
       </c>
     </row>
